--- a/test/output/data_schema_properties_2017_sample.xlsx
+++ b/test/output/data_schema_properties_2017_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>column</t>
   </si>
@@ -56,7 +56,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>[12141105, 14001048, 12447419, 14416238, 14314531]</t>
+    <t>[10721947, 12328496, 11052255, 11943639, 12734697]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -65,7 +65,7 @@
     <t>str</t>
   </si>
   <si>
-    <t>[1.0, 13.0, 1.0, 1.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
@@ -77,19 +77,19 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[690.0, 314.0, 674.0, 688.0, 120.0]</t>
+    <t>[841.0, 456.0, 405.0, 861.0, 285.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 4.0, 2.0, 2.0]</t>
+    <t>[3.0, 2.0, 1.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 0.0, 4.0, 3.0, 3.0]</t>
+    <t>[1.0, 2.0, 1.0, 2.0, 4.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
@@ -101,13 +101,13 @@
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 8.0, 6.0, 8.0, 8.0]</t>
+    <t>[9.0, 4.0, 8.0, 6.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[3.0, 3.0, 1.0, 2.0, 1.5]</t>
+    <t>[1.0, 2.0, 2.0, 3.0, 3.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -119,43 +119,43 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1454.0, 568.0, 3062.0, 1610.0, 1700.0]</t>
+    <t>[1576.0, 1572.0, 625.0, 676.0, 779.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1120.0, 1663.0, 1277.0, 868.0, 1163.0]</t>
+    <t>[2643.0, 3192.0, 880.0, 1760.0, 1990.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1578.0, 951.0, 1382.0, 5448.0, 1071.0]</t>
+    <t>[1282.0, 1889.0, 1570.0, 1720.0, 1440.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1344.0, 1440.0, 1440.0, 960.0, 1536.0]</t>
+    <t>[728.0, 1040.0, 1440.0, 1248.0, 1000.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[1413.0, 2479.0, 2736.0, 1681.0, 1789.0]</t>
+    <t>[2588.0, 1516.0, 4746.0, 3744.0, 3554.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1582.0, 850.0, 817.0, 1241.0, 619.0]</t>
+    <t>[2156.0, 917.0, 1605.0, 1611.0, 798.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[3893.0, 936.0, 2848.0, 4404.0, 4568.0]</t>
+    <t>[625.0, 2024.0, 2427.0, 1050.0, 2744.0]</t>
   </si>
   <si>
     <t>fips</t>
@@ -167,67 +167,64 @@
     <t>fireplacecnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 4.0]</t>
   </si>
   <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 3.0, 2.0, 2.0]</t>
+    <t>[3.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
+    <t>[9.0, 2.0, 2.0, 1.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>[0.0, 986.0, 575.0, 360.0, 0.0]</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>[True, True, True, True, True]</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
     <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>[360.0, 0.0, 0.0, 460.0, 454.0]</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>[True, True, True, True, True]</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>[6.0, 7.0, 2.0, 7.0, 7.0]</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33941651.0, 33946232.0, 34375636.0, 33798507.0, 33615185.0]</t>
+    <t>[34111548.0, 33811346.0, 33907062.0, 33921694.0, 34401343.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118053498.0, -118104890.0, -118128982.0, -117961265.0, -118190895.0]</t>
+    <t>[-118529000.0, -118372503.0, -117990525.0, -117721214.0, -119168277.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[9072.0, 6250.0, 143562.0, 3168.0, 6002.0]</t>
+    <t>[7200.0, 8681.0, 7059.0, 7047.0, 6000.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[444.0, 650.0, 450.0, 392.0, 684.0]</t>
+    <t>[450.0, 450.0, 450.0, 490.0, 576.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -242,55 +239,55 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['1129', '0100', '122', '0100', '0100']</t>
+    <t>['0100', '0200', '0200', '0100', '0101']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 261.0, 261.0, 261.0, 261.0]</t>
+    <t>[261.0, 266.0, 261.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LBR1N', 'LAR1', 'CORL*', 'HPR2YY', 'LCRA7000*']</t>
+    <t>['LMPUD*', 'SCUR3', 'LNR2YY', 'ESR3*', 'LARD1.5']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60590992.354005001, 60371041.031005003, 60379010.043063998, 60375515.011004001, 60590636.034010999]</t>
+    <t>[61110084.021041006, 60371210.202002004, 60379200.431024, 60379108.041031994, 60371134.22101]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[54722.0, 12447.0, 16764.0, 46298.0, 54311.0]</t>
+    <t>[12447.0, 8384.0, 24174.0, 47568.0, 47019.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 1286.0, 3101.0, 3101.0, 3101.0]</t>
+    <t>[3101.0, 3101.0, 3101.0, 1286.0, 1286.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[268118.0, 34213.0, 40548.0, 343505.0, 274049.0]</t>
+    <t>[13017.0, 268548.0, 273197.0, 403197.0, 276486.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97068.0, 96122.0, 96247.0, 97052.0, 96464.0]</t>
+    <t>[96092.0, 96451.0, 96373.0, 96240.0, 97026.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[7.0, 0.0, 6.0, 0.0, 0.0]</t>
+    <t>[0.0, 0.0, 4.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -311,19 +308,19 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[530.0, 550.0, 220.0, 120.0, 117.0]</t>
+    <t>[380.0, 260.0, 373.0, 108.0, 300.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[44.0, 80.0, 84.0, 90.0, 640.0]</t>
+    <t>[348.0, 1306.0, 50.0, 144.0, 331.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1989.0, 1938.0, 1925.0, 1963.0, 1969.0]</t>
+    <t>[2004.0, 1979.0, 1936.0, 1971.0, 1990.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
@@ -335,13 +332,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[38909.0, 73499.0, 63047.0, 21924.0, 97870.0]</t>
+    <t>[98481.0, 356488.0, 176400.0, 341146.0, 152394.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[733718.0, 1193980.0, 206492.0, 70989.0, 411830.0]</t>
+    <t>[432413.0, 245567.0, 124928.0, 248931.0, 297358.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -353,13 +350,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[68943.0, 47859.0, 29379.0, 521072.0, 296000.0]</t>
+    <t>[76900.0, 131461.0, 245070.0, 330956.0, 389499.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[4235.5600000000004, 8288.0900000000001, 1104.6400000000001, 7482.3299999999999, 2586.8699999999999]</t>
+    <t>[3723.4299999999998, 3219.8400000000001, 2923.0799999999999, 9750.4400000000005, 7736.0900000000001]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -371,13 +368,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 10.0, 15.0, 15.0, 15.0]</t>
+    <t>[14.0, 15.0, 15.0, 14.0, 14.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60371220002003.0, 60375031042009.0, 60590638031001.0, 60590115031004.0, 60590218212006.0]</t>
+    <t>[60590867022003.0, 61110075111018.0, 61110053052016.0, 60372077101036.0, 60372623031000.0]</t>
   </si>
 </sst>
 </file>
@@ -788,14 +785,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="42"/>
-    <col customWidth="1" max="3" min="3" width="10.5"/>
-    <col customWidth="1" max="4" min="4" width="13.5"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="4" min="4" width="30"/>
     <col customWidth="1" max="5" min="5" width="100"/>
-    <col customWidth="1" max="6" min="6" width="21"/>
-    <col customWidth="1" max="7" min="7" width="24"/>
-    <col customWidth="1" max="8" min="8" width="24"/>
-    <col customWidth="1" max="9" min="9" width="24"/>
-    <col customWidth="1" max="10" min="10" width="25.5"/>
+    <col customWidth="1" max="6" min="6" width="30"/>
+    <col customWidth="1" max="7" min="7" width="30"/>
+    <col customWidth="1" max="8" min="8" width="30"/>
+    <col customWidth="1" max="9" min="9" width="30"/>
+    <col customWidth="1" max="10" min="10" width="30"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:10"/>
@@ -851,16 +848,16 @@
         <v>298521</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10711725</v>
+        <v>10711750</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>12547451</v>
+        <v>12545694</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>169601949</v>
+        <v>168183604</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8234688.709369294</v>
+        <v>7928580.021381401</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="3" spans="1:10">
@@ -892,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.158490115480252</v>
+        <v>3.176512849837041</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="4" spans="1:10">
@@ -912,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
@@ -921,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.436089501518546</v>
+        <v>2.537049697007137</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="5" spans="1:10">
@@ -944,19 +941,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>751</v>
+        <v>131</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8516</v>
+        <v>2392</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>538.6215017798107</v>
+        <v>441.1134851937189</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:10">
@@ -976,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>0</v>
@@ -985,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.077935754003967</v>
+        <v>1.074968655155621</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:10">
@@ -1008,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
@@ -1017,10 +1014,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.273038701973298</v>
+        <v>1.268565882212767</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:10">
@@ -1052,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.5003512729914086</v>
+        <v>0.5011333792631623</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:10">
@@ -1084,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.72792622002962</v>
+        <v>1.728702861013226</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:10">
@@ -1104,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.002666162200627</v>
+        <v>1.000255745900836</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:10">
@@ -1168,19 +1165,19 @@
         <v>34</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>4625</v>
+        <v>2587</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>31303</v>
+        <v>9256</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>634.4212926563559</v>
+        <v>626.5880076846375</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:10">
@@ -1200,7 +1197,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>7038</v>
+        <v>6987</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>3</v>
@@ -1209,10 +1206,10 @@
         <v>1573</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>617114</v>
+        <v>319611</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1971.835202375745</v>
+        <v>1737.481433993555</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:10">
@@ -1232,19 +1229,19 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>6617</v>
+        <v>6491</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>427079</v>
+        <v>110891</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>1216.331991564069</v>
+        <v>959.6705394868337</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:10">
@@ -1264,10 +1261,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>1296</v>
@@ -1276,7 +1273,7 @@
         <v>2688</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>357.0702779400612</v>
+        <v>356.512326691051</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" spans="1:10">
@@ -1296,19 +1293,19 @@
         <v>42</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>8798</v>
+        <v>4240</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>2173</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>820242</v>
+        <v>319611</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>5999.364342626744</v>
+        <v>5696.529362379539</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" spans="1:10">
@@ -1328,19 +1325,19 @@
         <v>44</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>4888</v>
+        <v>2638</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>41906</v>
+        <v>14795</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>682.3221768896177</v>
+        <v>670.6523368321056</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" spans="1:10">
@@ -1360,19 +1357,19 @@
         <v>46</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>4221</v>
+        <v>1464</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>2008</v>
+        <v>1998.5</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>952576</v>
+        <v>22340</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>7786.003955248616</v>
+        <v>1541.418159301102</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="19" spans="1:10">
@@ -1404,7 +1401,7 @@
         <v>6111</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>20.26290173238331</v>
+        <v>20.25985129332887</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="20" spans="1:10">
@@ -1424,7 +1421,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
@@ -1433,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>0.4617294596457628</v>
+        <v>0.4588684557865541</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" spans="1:10">
@@ -1468,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.9898811215542406</v>
+        <v>0.9902962270303509</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" spans="1:10">
@@ -1488,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0</v>
@@ -1497,10 +1494,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>0.6126987038466751</v>
+        <v>0.6020242700466377</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:10">
@@ -1520,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>1666</v>
+        <v>1205</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>0</v>
@@ -1529,10 +1526,10 @@
         <v>441</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>6435</v>
+        <v>4309</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>245.2762676558484</v>
+        <v>244.1074936817077</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" spans="1:10">
@@ -1584,7 +1581,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>1</v>
@@ -1596,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.292948059729381</v>
+        <v>3.282668664409998</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:10">
@@ -1616,19 +1613,19 @@
         <v>62</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>220711</v>
+        <v>220216</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>33339384</v>
+        <v>33339136</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>34008065</v>
+        <v>34008578</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>34819602</v>
+        <v>34818751</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>243844.8854376957</v>
+        <v>243821.3852799664</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:10">
@@ -1648,19 +1645,19 @@
         <v>64</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>226997</v>
+        <v>226745</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-119475053</v>
+        <v>-119473723</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-118173165</v>
+        <v>-118171907</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>-117554372</v>
+        <v>-117554925</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>344799.9992359209</v>
+        <v>345908.859922001</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:10">
@@ -1680,19 +1677,19 @@
         <v>66</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>32132</v>
+        <v>31006</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>7000</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>15585629</v>
+        <v>26166748</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>104741.5008458772</v>
+        <v>107828.0977592151</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:10">
@@ -1709,7 +1706,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>1</v>
@@ -1729,42 +1726,42 @@
     </row>
     <row customHeight="1" ht="20" r="30" spans="1:10">
       <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="4" t="n">
-        <v>907</v>
+        <v>451</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>17410</v>
+        <v>2576</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>191.3224473122055</v>
+        <v>154.7718986708628</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
@@ -1773,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>1</v>
@@ -1793,10 +1790,10 @@
     </row>
     <row customHeight="1" ht="20" r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
@@ -1805,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>1</v>
@@ -1825,10 +1822,10 @@
     </row>
     <row customHeight="1" ht="20" r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>11</v>
@@ -1837,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>1</v>
@@ -1857,22 +1854,22 @@
     </row>
     <row customHeight="1" ht="20" r="34" spans="1:10">
       <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F34" s="4" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G34" s="4" t="n">
         <v/>
@@ -1889,19 +1886,19 @@
     </row>
     <row customHeight="1" ht="20" r="35" spans="1:10">
       <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>15</v>
@@ -1916,27 +1913,27 @@
         <v>275</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>16.09291542813523</v>
+        <v>15.81316982104525</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:10">
       <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" s="4" t="n">
-        <v>3327</v>
+        <v>2923</v>
       </c>
       <c r="G36" s="4" t="n">
         <v/>
@@ -1953,10 +1950,10 @@
     </row>
     <row customHeight="1" ht="20" r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>11</v>
@@ -1965,42 +1962,42 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>77247</v>
+        <v>77079</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>60371011.101</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>60375713.001008</v>
+        <v>60375715.021002</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>61110091.003011</v>
+        <v>61110091.00300501</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>200854.0038115225</v>
+        <v>201080.9195519063</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:10">
       <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F38" s="4" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>3491</v>
@@ -2012,24 +2009,24 @@
         <v>396556</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>50571.14601253171</v>
+        <v>51172.65811946172</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:10">
       <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>3</v>
@@ -2044,27 +2041,27 @@
         <v>3101</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>787.9991186703782</v>
+        <v>789.156007839647</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:10">
       <c r="A40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F40" s="4" t="n">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>6952</v>
@@ -2076,59 +2073,59 @@
         <v>764167</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>165816.872573781</v>
+        <v>165754.8358361017</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:10">
       <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F41" s="4" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>95982</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>96377</v>
+        <v>96378</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>399675</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>4134.30635918293</v>
+        <v>3406.028929156746</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:10">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F42" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>0</v>
@@ -2137,18 +2134,18 @@
         <v>0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>2.843778492021667</v>
+        <v>2.842479828263226</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>11</v>
@@ -2177,10 +2174,10 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
@@ -2189,10 +2186,10 @@
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -2201,30 +2198,30 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.1210493268649961</v>
+        <v>0.1169907738518289</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:10">
       <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F45" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>4</v>
@@ -2236,15 +2233,15 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0.3840502753222648</v>
+        <v>0.3481914929856652</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>11</v>
@@ -2253,10 +2250,10 @@
         <v>11</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
@@ -2268,59 +2265,59 @@
         <v>708</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>2.743118549385227</v>
+        <v>2.993212245727014</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:10">
       <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F47" s="4" t="n">
-        <v>1664</v>
+        <v>882</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>270</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>7983</v>
+        <v>3557</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>236.8833305296047</v>
+        <v>224.2747631822406</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:10">
       <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F48" s="4" t="n">
-        <v>594</v>
+        <v>158</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>10</v>
@@ -2332,30 +2329,30 @@
         <v>6141</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>369.7145165326822</v>
+        <v>444.6649889427788</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:10">
       <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="F49" s="4" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1853</v>
+        <v>1805</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>1963</v>
@@ -2364,15 +2361,15 @@
         <v>2016</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>23.61198574699262</v>
+        <v>23.64440393300778</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>11</v>
@@ -2381,10 +2378,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
@@ -2393,18 +2390,18 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.5423674272422006</v>
+        <v>0.5353582278640683</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>15</v>
@@ -2433,89 +2430,89 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:10">
       <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="F52" s="4" t="n">
-        <v>139586</v>
+        <v>138288</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>126907</v>
+        <v>126906</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>54708775</v>
+        <v>123371992</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>290031.0334233188</v>
+        <v>392061.7923844773</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:10">
       <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F53" s="4" t="n">
-        <v>163621</v>
+        <v>162701</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>321653</v>
+        <v>320280</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>164246219</v>
+        <v>146257183</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>767410.6009396112</v>
+        <v>743810.0613374985</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:10">
       <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>2016</v>
@@ -2524,88 +2521,88 @@
         <v>2016</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>0.06279418803061267</v>
+        <v>0.05854405039361013</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:10">
       <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="F55" s="4" t="n">
-        <v>143948</v>
+        <v>142333</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>175689</v>
+        <v>176256.5</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>88921951</v>
+        <v>63167616</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>502462.9182828493</v>
+        <v>470099.4466758517</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:10">
       <c r="A56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="F56" s="4" t="n">
-        <v>251291</v>
+        <v>249138</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>5.12</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>4009</v>
+        <v>3998.65</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>1840935.06</v>
+        <v>1783886.44</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>9520.906165117327</v>
+        <v>8714.392279524474</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:10">
       <c r="A57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>1</v>
@@ -2625,42 +2622,42 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:10">
       <c r="A58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="F58" s="4" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>14</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2.562149521734548</v>
+        <v>2.696342691562326</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>11</v>
@@ -2669,22 +2666,22 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>76136</v>
+        <v>75664</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>60371011101000</v>
+        <v>-1</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>60375714001010</v>
+        <v>60375715043006</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>61110091003005</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>200609304156.316</v>
+        <v>230468269410.4676</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +2726,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2:C59" type="list">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59" type="list">
       <formula1>"key,numeric,str,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/output/data_schema_properties_2017_sample.xlsx
+++ b/test/output/data_schema_properties_2017_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>column</t>
   </si>
@@ -56,7 +56,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>[10721947, 12328496, 11052255, 11943639, 12734697]</t>
+    <t>[11109894, 11662762, 14387128, 14009354, 11127271]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -77,37 +77,37 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[841.0, 456.0, 405.0, 861.0, 285.0]</t>
+    <t>[1377.0, 700.0, 1528.0, 747.0, 718.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[3.0, 2.0, 1.0, 2.0, 2.0]</t>
+    <t>[2.0, 1.0, 3.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 1.0, 2.0, 4.0]</t>
+    <t>[2.0, 3.0, 1.0, 3.0, 4.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 3.0, 4.0, 3.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[9.0, 4.0, 8.0, 6.0, 4.0]</t>
+    <t>[4.0, 12.0, 5.0, 8.0, 6.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 2.0, 3.0, 3.0]</t>
+    <t>[2.0, 3.5, 2.0, 1.0, 3.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -119,73 +119,73 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1576.0, 1572.0, 625.0, 676.0, 779.0]</t>
+    <t>[476.0, 1310.0, 1108.0, 1042.0, 2065.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[2643.0, 3192.0, 880.0, 1760.0, 1990.0]</t>
+    <t>[1526.0, 1315.0, 1736.0, 2763.0, 711.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1282.0, 1889.0, 1570.0, 1720.0, 1440.0]</t>
+    <t>[2820.0, 1118.0, 1726.0, 1433.0, 1634.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[728.0, 1040.0, 1440.0, 1248.0, 1000.0]</t>
+    <t>[1344.0, 576.0, 2304.0, 1392.0, 2160.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[2588.0, 1516.0, 4746.0, 3744.0, 3554.0]</t>
+    <t>[1427.0, 2252.0, 3530.0, 1009.0, 3890.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[2156.0, 917.0, 1605.0, 1611.0, 798.0]</t>
+    <t>[1054.0, 1665.0, 960.0, 1937.0, 1826.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[625.0, 2024.0, 2427.0, 1050.0, 2744.0]</t>
+    <t>[1044.0, 1581.0, 1519.0, 3820.0, 2699.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6037.0, 6037.0, 6037.0, 6037.0]</t>
+    <t>[6037.0, 6059.0, 6037.0, 6037.0, 6111.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 4.0]</t>
+    <t>[1.0, 1.0, 3.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[3.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[3.0, 2.0, 4.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[9.0, 2.0, 2.0, 1.0, 2.0]</t>
+    <t>[1.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[0.0, 986.0, 575.0, 360.0, 0.0]</t>
+    <t>[702.0, 240.0, 0.0, 485.0, 462.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -197,25 +197,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[7.0, 7.0, 7.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[34111548.0, 33811346.0, 33907062.0, 33921694.0, 34401343.0]</t>
+    <t>[34240402.0, 33899285.0, 34736064.0, 33744408.0, 34191050.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118529000.0, -118372503.0, -117990525.0, -117721214.0, -119168277.0]</t>
+    <t>[-117973013.0, -117822381.0, -117644458.0, -118235200.0, -118209646.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[7200.0, 8681.0, 7059.0, 7047.0, 6000.0]</t>
+    <t>[7596.0, 9010.0, 6603.0, 4700.0, 6260.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -224,7 +224,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[450.0, 450.0, 450.0, 490.0, 576.0]</t>
+    <t>[432.0, 380.0, 200.0, 395.0, 450.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -239,7 +239,7 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '0200', '0200', '0100', '0101']</t>
+    <t>['0101', '0100', '010D', '010E', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
@@ -251,43 +251,43 @@
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LMPUD*', 'SCUR3', 'LNR2YY', 'ESR3*', 'LARD1.5']</t>
+    <t>['LAR1', 'LFR110000*', 'LBPD25', 'LRR16500*', 'TORR-LM']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[61110084.021041006, 60371210.202002004, 60379200.431024, 60379108.041031994, 60371134.22101]</t>
+    <t>[60374601.002004005, 60379001.031061, 61110058.023001, 60375766.011002004, 60374086.263009]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[12447.0, 8384.0, 24174.0, 47568.0, 47019.0]</t>
+    <t>[38032.0, 12447.0, 36502.0, 12447.0, 13150.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 3101.0, 3101.0, 1286.0, 1286.0]</t>
+    <t>[3101.0, 3101.0, 3101.0, 2061.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[13017.0, 268548.0, 273197.0, 403197.0, 276486.0]</t>
+    <t>[113455.0, 272933.0, 113455.0, 48516.0, 274940.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[96092.0, 96451.0, 96373.0, 96240.0, 97026.0]</t>
+    <t>[96024.0, 96996.0, 96346.0, 96964.0, 96220.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 4.0, 0.0, 0.0]</t>
+    <t>[7.0, 0.0, 0.0, 4.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -308,37 +308,40 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[380.0, 260.0, 373.0, 108.0, 300.0]</t>
+    <t>[400.0, 200.0, 360.0, 270.0, 56.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[348.0, 1306.0, 50.0, 144.0, 331.0]</t>
+    <t>[648.0, 550.0, 152.0, 144.0, 2753.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[2004.0, 1979.0, 1936.0, 1971.0, 1990.0]</t>
+    <t>[1975.0, 1972.0, 1974.0, 1977.0, 2003.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
+    <t>[2.0, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[98481.0, 356488.0, 176400.0, 341146.0, 152394.0]</t>
+    <t>[150313.0, 56799.0, 134337.0, 213422.0, 95331.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[432413.0, 245567.0, 124928.0, 248931.0, 297358.0]</t>
+    <t>[494539.0, 2187598.0, 389613.0, 366879.0, 40755.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -350,13 +353,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[76900.0, 131461.0, 245070.0, 330956.0, 389499.0]</t>
+    <t>[65630.0, 346222.0, 354714.0, 334157.0, 304727.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[3723.4299999999998, 3219.8400000000001, 2923.0799999999999, 9750.4400000000005, 7736.0900000000001]</t>
+    <t>[4738.22, 2445.45, 4376.8, 9255.1, 3635.26]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -368,13 +371,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 15.0, 15.0, 14.0, 14.0]</t>
+    <t>[11.0, 15.0, 14.0, 14.0, 14.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60590867022003.0, 61110075111018.0, 61110053052016.0, 60372077101036.0, 60372623031000.0]</t>
+    <t>[60590992123003.0, 60590995142018.0, 60371873002013.0, 60371397024018.0, 60371044012009.0]</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
     <cellStyle builtinId="45" hidden="0" name="Accent5" xfId="1"/>
     <cellStyle builtinId="28" hidden="0" name="Neutral" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="009C0006"/>
@@ -478,6 +481,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="0008306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="009ECAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00A63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="003F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00DADAEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,14 +818,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="42"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="100"/>
-    <col customWidth="1" max="6" min="6" width="30"/>
-    <col customWidth="1" max="7" min="7" width="30"/>
-    <col customWidth="1" max="8" min="8" width="30"/>
-    <col customWidth="1" max="9" min="9" width="30"/>
-    <col customWidth="1" max="10" min="10" width="30"/>
+    <col customWidth="1" max="6" min="6" width="21"/>
+    <col customWidth="1" max="7" min="7" width="18"/>
+    <col customWidth="1" max="8" min="8" width="24"/>
+    <col customWidth="1" max="9" min="9" width="24"/>
+    <col customWidth="1" max="10" min="10" width="25.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:10"/>
@@ -848,16 +881,16 @@
         <v>298521</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10711750</v>
+        <v>10711746</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>12545694</v>
+        <v>12545732</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>168183604</v>
+        <v>168183612</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7928580.021381401</v>
+        <v>7946849.583483955</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="3" spans="1:10">
@@ -889,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.176512849837041</v>
+        <v>3.146581716562645</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="4" spans="1:10">
@@ -909,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
@@ -921,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.537049697007137</v>
+        <v>2.427715578344177</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="5" spans="1:10">
@@ -941,19 +974,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>536</v>
+        <v>645</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2392</v>
+        <v>3489</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>441.1134851937189</v>
+        <v>579.3718429997591</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:10">
@@ -973,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>0</v>
@@ -985,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.074968655155621</v>
+        <v>1.081603554700317</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:10">
@@ -1005,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
@@ -1014,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.268565882212767</v>
+        <v>1.274293216454018</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:10">
@@ -1049,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.5011333792631623</v>
+        <v>0.4549159067476239</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:10">
@@ -1081,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.728702861013226</v>
+        <v>1.731411959227059</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:10">
@@ -1101,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -1113,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.000255745900836</v>
+        <v>1.006042423990989</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:10">
@@ -1165,19 +1198,19 @@
         <v>34</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>2587</v>
+        <v>2569</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>44</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>9256</v>
+        <v>10245</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>626.5880076846375</v>
+        <v>630.3394175941703</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:10">
@@ -1197,19 +1230,19 @@
         <v>36</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>6987</v>
+        <v>6993</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>319611</v>
+        <v>297165</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>1737.481433993555</v>
+        <v>1369.13493717353</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:10">
@@ -1229,19 +1262,19 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>6491</v>
+        <v>6556</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>1541</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>110891</v>
+        <v>297165</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>959.6705394868337</v>
+        <v>1088.061204906084</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:10">
@@ -1261,19 +1294,19 @@
         <v>40</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>1296</v>
+        <v>1248</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>2688</v>
+        <v>2304</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>356.512326691051</v>
+        <v>355.1857568493184</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" spans="1:10">
@@ -1293,19 +1326,19 @@
         <v>42</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>4240</v>
+        <v>4200</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>2173</v>
+        <v>2161</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>319611</v>
+        <v>146945</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>5696.529362379539</v>
+        <v>3295.453763159604</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" spans="1:10">
@@ -1325,19 +1358,19 @@
         <v>44</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>2638</v>
+        <v>2621</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>44</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>14795</v>
+        <v>13628</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>670.6523368321056</v>
+        <v>675.3752830936061</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" spans="1:10">
@@ -1357,19 +1390,19 @@
         <v>46</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>1464</v>
+        <v>1404</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1998.5</v>
+        <v>1984.5</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>22340</v>
+        <v>29104</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>1541.418159301102</v>
+        <v>1806.15000197268</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="19" spans="1:10">
@@ -1401,7 +1434,7 @@
         <v>6111</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>20.25985129332887</v>
+        <v>20.2904837335206</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="20" spans="1:10">
@@ -1421,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
@@ -1430,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>0.4588684557865541</v>
+        <v>0.461831526511622</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" spans="1:10">
@@ -1465,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.9902962270303509</v>
+        <v>0.9954068886783576</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" spans="1:10">
@@ -1485,7 +1518,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0</v>
@@ -1494,10 +1527,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>0.6020242700466377</v>
+        <v>0.6131297050509996</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:10">
@@ -1517,7 +1550,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>1205</v>
+        <v>1230</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>0</v>
@@ -1526,10 +1559,10 @@
         <v>441</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>4309</v>
+        <v>6280</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>244.1074936817077</v>
+        <v>247.2938489081828</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" spans="1:10">
@@ -1581,7 +1614,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>1</v>
@@ -1593,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.282668664409998</v>
+        <v>3.287141657495304</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:10">
@@ -1613,19 +1646,19 @@
         <v>62</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>220216</v>
+        <v>220075</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>33339136</v>
+        <v>33339312</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>34008578</v>
+        <v>34008690</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>34818751</v>
+        <v>34819607</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>243821.3852799664</v>
+        <v>243965.9784618077</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:10">
@@ -1645,19 +1678,19 @@
         <v>64</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>226745</v>
+        <v>226409</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-119473723</v>
+        <v>-119474470</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-118171907</v>
+        <v>-118172786</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>-117554925</v>
+        <v>-117554316</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>345908.859922001</v>
+        <v>346015.3754907603</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:10">
@@ -1677,19 +1710,19 @@
         <v>66</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>31006</v>
+        <v>31218</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>7000</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>26166748</v>
+        <v>20313244</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>107828.0977592151</v>
+        <v>104728.6578383428</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:10">
@@ -1741,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>500</v>
+        <v>491.5</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>2576</v>
+        <v>3848</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>154.7718986708628</v>
+        <v>172.2778248742273</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:10">
@@ -1869,7 +1902,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G34" s="4" t="n">
         <v/>
@@ -1901,7 +1934,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>31</v>
@@ -1910,10 +1943,10 @@
         <v>261</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>15.81316982104525</v>
+        <v>15.68104573399918</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:10">
@@ -1933,7 +1966,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>2923</v>
+        <v>2914</v>
       </c>
       <c r="G36" s="4" t="n">
         <v/>
@@ -1965,19 +1998,19 @@
         <v>80</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>77079</v>
+        <v>77097</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>60371011.101</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>60375715.021002</v>
+        <v>60375715.022009</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>61110091.00300501</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>201080.9195519063</v>
+        <v>201385.350230784</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:10">
@@ -1997,7 +2030,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>3491</v>
@@ -2009,7 +2042,7 @@
         <v>396556</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>51172.65811946172</v>
+        <v>50788.19783707087</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:10">
@@ -2041,7 +2074,7 @@
         <v>3101</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>789.156007839647</v>
+        <v>788.0209313864428</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:10">
@@ -2073,7 +2106,7 @@
         <v>764167</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>165754.8358361017</v>
+        <v>165097.0408858646</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:10">
@@ -2093,19 +2126,19 @@
         <v>88</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>95982</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>96378</v>
+        <v>96377</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>399675</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>3406.028929156746</v>
+        <v>3314.161844270116</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:10">
@@ -2125,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>0</v>
@@ -2134,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>2.842479828263226</v>
+        <v>2.836292542391999</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:10">
@@ -2189,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -2198,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.1169907738518289</v>
+        <v>0.1192929938533168</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:10">
@@ -2233,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0.3481914929856652</v>
+        <v>0.3740724488023001</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:10">
@@ -2253,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
@@ -2262,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>708</v>
+        <v>237</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>2.993212245727014</v>
+        <v>1.077348876721849</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:10">
@@ -2285,19 +2318,19 @@
         <v>97</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>270</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>3557</v>
+        <v>4025</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>224.2747631822406</v>
+        <v>232.4201062704755</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:10">
@@ -2317,19 +2350,19 @@
         <v>99</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>6141</v>
+        <v>2753</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>444.6649889427788</v>
+        <v>360.2616863852015</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:10">
@@ -2349,10 +2382,10 @@
         <v>101</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>1963</v>
@@ -2361,7 +2394,7 @@
         <v>2016</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>23.64440393300778</v>
+        <v>23.64812483996787</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:10">
@@ -2378,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
@@ -2393,15 +2426,15 @@
         <v>6</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.5353582278640683</v>
+        <v>0.5363120518071416</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>15</v>
@@ -2430,10 +2463,10 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>11</v>
@@ -2442,10 +2475,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>138288</v>
+        <v>138111</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -2454,18 +2487,18 @@
         <v>126906</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>123371992</v>
+        <v>66404932</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>392061.7923844773</v>
+        <v>285966.1783846713</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>11</v>
@@ -2474,30 +2507,30 @@
         <v>11</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>162701</v>
+        <v>162089</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>320280</v>
+        <v>322511</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>146257183</v>
+        <v>83196095</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>743810.0613374985</v>
+        <v>673013.5311768955</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>11</v>
@@ -2506,13 +2539,13 @@
         <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>2016</v>
@@ -2521,15 +2554,15 @@
         <v>2016</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>0.05854405039361013</v>
+        <v>0.05750655452345259</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>11</v>
@@ -2538,30 +2571,30 @@
         <v>11</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>142333</v>
+        <v>142065</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>176256.5</v>
+        <v>177118</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>63167616</v>
+        <v>58726658</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>470099.4466758517</v>
+        <v>473140.6412160094</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>11</v>
@@ -2570,30 +2603,30 @@
         <v>11</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>249138</v>
+        <v>249458</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>5.12</v>
+        <v>1.85</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>3998.65</v>
+        <v>4019.34</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>1783886.44</v>
+        <v>1195295.62</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>8714.392279524474</v>
+        <v>8180.678091540317</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>15</v>
@@ -2602,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>1</v>
@@ -2622,10 +2655,10 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>11</v>
@@ -2634,30 +2667,30 @@
         <v>11</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>14</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>2.696342691562326</v>
+        <v>2.895157465013421</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>11</v>
@@ -2666,22 +2699,22 @@
         <v>12</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>75664</v>
+        <v>75663</v>
       </c>
       <c r="G59" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>60375715043006</v>
+        <v>60375717012007</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>61110091003005</v>
+        <v>61110091003023</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>230468269410.4676</v>
+        <v>230641145107.0409</v>
       </c>
     </row>
   </sheetData>
@@ -2705,23 +2738,41 @@
     <cfRule dxfId="1" priority="6" stopIfTrue="1" type="expression">
       <formula>C2="key"</formula>
     </cfRule>
+    <cfRule dxfId="2" priority="7" stopIfTrue="1" type="expression">
+      <formula>C2="numeric"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="8" stopIfTrue="1" type="expression">
+      <formula>C2="str"</formula>
+    </cfRule>
+    <cfRule dxfId="4" priority="9" stopIfTrue="1" type="expression">
+      <formula>C2="date"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D59">
     <cfRule dxfId="0" priority="4" stopIfTrue="1" type="expression">
       <formula>C2&lt;&gt;D2</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="10" stopIfTrue="1" type="expression">
       <formula>D2="error"</formula>
     </cfRule>
-    <cfRule dxfId="1" priority="8" stopIfTrue="1" type="expression">
+    <cfRule dxfId="1" priority="11" stopIfTrue="1" type="expression">
       <formula>D2="key"</formula>
+    </cfRule>
+    <cfRule dxfId="2" priority="12" stopIfTrue="1" type="expression">
+      <formula>D2="numeric"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="13" stopIfTrue="1" type="expression">
+      <formula>D2="str"</formula>
+    </cfRule>
+    <cfRule dxfId="4" priority="14" stopIfTrue="1" type="expression">
+      <formula>D2="date"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F59">
-    <cfRule dxfId="0" priority="9" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="15" stopIfTrue="1" type="expression">
       <formula>F2=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="10" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="16" stopIfTrue="1" type="expression">
       <formula>F2=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/output/data_schema_properties_2017_sample.xlsx
+++ b/test/output/data_schema_properties_2017_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>column</t>
   </si>
@@ -38,6 +38,9 @@
     <t>sample_num_uni</t>
   </si>
   <si>
+    <t>sample_uni_percentage</t>
+  </si>
+  <si>
     <t>sample_min</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>[17162672, 10947656, 14247043, 10885125, 14029739]</t>
+    <t>[14622624, 14457552, 13842870, 14347265, 12089715]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -74,43 +77,43 @@
     <t>architecturalstyletypeid</t>
   </si>
   <si>
-    <t>[2.0, 7.0, 7.0, 7.0, 7.0]</t>
+    <t>[2.0, 7.0, 7.0, 8.0, 7.0]</t>
   </si>
   <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[300.0, 939.0, 581.0, 160.0, 369.0]</t>
+    <t>[55.0, 1213.0, 604.0, 729.0, 1725.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 3.0, 4.0, 3.0, 2.0]</t>
+    <t>[2.5, 1.0, 3.0, 3.0, 4.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 3.0, 3.0, 4.0, 1.0]</t>
+    <t>[3.0, 3.0, 3.0, 3.0, 2.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 4.0, 3.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[4.0, 3.0, 4.0, 9.0, 4.0]</t>
+    <t>[4.0, 4.0, 6.0, 8.0, 6.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[2.0, 3.0, 3.0, 2.0, 2.0]</t>
+    <t>[2.0, 3.0, 2.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -122,49 +125,49 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1976.0, 1110.0, 1120.0, 798.0, 2872.0]</t>
+    <t>[896.0, 1191.0, 801.0, 1130.0, 1268.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1767.0, 884.0, 2910.0, 1760.0, 5973.0]</t>
+    <t>[3630.0, 3206.0, 2600.0, 1125.0, 819.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1393.0, 890.0, 1057.0, 1045.0, 1446.0]</t>
+    <t>[1124.0, 2070.0, 2901.0, 2484.0, 1200.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1344.0, 960.0, 720.0, 672.0, 1440.0]</t>
+    <t>[1120.0, 660.0, 1128.0, 1152.0, 1440.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[1956.0, 1606.0, 4624.0, 1775.0, 2203.0]</t>
+    <t>[4607.0, 1872.0, 2731.0, 1683.0, 2481.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1610.0, 1149.0, 1043.0, 1234.0, 1030.0]</t>
+    <t>[462.0, 944.0, 1537.0, 1029.0, 1358.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2683.0, 3185.0, 1244.0, 1144.0, 4358.0]</t>
+    <t>[2251.0, 2048.0, 2808.0, 3009.0, 4116.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6037.0, 6037.0, 6037.0, 6037.0]</t>
+    <t>[6037.0, 6037.0, 6059.0, 6059.0, 6059.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
@@ -173,19 +176,19 @@
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 2.0, 2.0, 3.0]</t>
+    <t>[2.0, 3.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 1.0, 2.0, 2.0]</t>
+    <t>[2.0, 2.0, 2.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[569.0, 0.0, 400.0, 483.0, 350.0]</t>
+    <t>[440.0, 0.0, 472.0, 390.0, 601.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -197,25 +200,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 7.0, 7.0, 2.0]</t>
+    <t>[2.0, 7.0, 2.0, 7.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33695129.0, 33789783.0, 34063659.0, 34210133.0, 33979714.0]</t>
+    <t>[33753159.0, 34234898.0, 34687691.0, 33910345.0, 34063657.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-117956000.0, -117814160.0, -118076463.0, -118239592.0, -118034129.0]</t>
+    <t>[-118638725.0, -118504373.0, -118079160.0, -118414000.0, -118119307.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[5129.0, 4873.0, 14827.0, 6915.0, 7333.0]</t>
+    <t>[17020.0, 5749.0, 6948.0, 5110.0, 6543.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -224,7 +227,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[450.0, 630.0, 320.0, 640.0, 504.0]</t>
+    <t>[600.0, 450.0, 640.0, 510.0, 700.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -239,55 +242,55 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '0100', '0100', '122', '0100']</t>
+    <t>['0101', '100V', '010C', '1', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 261.0, 261.0, 266.0, 261.0]</t>
+    <t>[261.0, 261.0, 261.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['SOR110', 'BLR3*', 'LARD1.5', 'LCR1*', 'RPRS10000*']</t>
+    <t>['WCR1*', 'ALRPD*', 'LAM3', 'GDR1', 'LAR1']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60590992.022004, 60375543.011, 60590746.011013, 60590748.013009995, 60374049.012002]</t>
+    <t>[60374806.004007995, 60375319.021014005, 60375537.011012, 60379201.023185, 60373012.031]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[118895.0, 47019.0, 118914.0, 5534.0, 9840.0]</t>
+    <t>[44833.0, 12447.0, 34543.0, 47019.0, 54212.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[1286.0, 3101.0, 3101.0, 3101.0, 3101.0]</t>
+    <t>[1286.0, 3101.0, 3101.0, 2061.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[416315.0, 31817.0, 115609.0, 117954.0, 275884.0]</t>
+    <t>[47950.0, 275411.0, 273400.0, 113886.0, 118208.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[96370.0, 97089.0, 96125.0, 96959.0, 96126.0]</t>
+    <t>[96117.0, 97328.0, 96505.0, 96213.0, 96371.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 7.0, 0.0]</t>
+    <t>[0.0, 0.0, 0.0, 0.0, 5.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -299,9 +302,6 @@
     <t>threequarterbathnbr</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
-  </si>
-  <si>
     <t>typeconstructiontypeid</t>
   </si>
   <si>
@@ -314,37 +314,40 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[480.0, 428.0, 265.0, 400.0, 216.0]</t>
+    <t>[92.0, 58.0, 144.0, 360.0, 360.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[33.0, 72.0, 120.0, 227.0, 498.0]</t>
+    <t>[1000.0, 361.0, 120.0, 256.0, 27.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1993.0, 1977.0, 1932.0, 1954.0, 2012.0]</t>
+    <t>[1954.0, 1982.0, 1959.0, 1956.0, 1955.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
+    <t>[1.0, 2.0, 2.0, 1.0, 2.0]</t>
+  </si>
+  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[232177.0, 80590.0, 101947.0, 72268.0, 135486.0]</t>
+    <t>[155795.0, 265637.0, 153418.0, 76007.0, 233676.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[1261091.0, 1278576.0, 502232.0, 1465000.0, 38674.0]</t>
+    <t>[178276.0, 249574.0, 545000.0, 222369.0, 98375.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -356,13 +359,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[121172.0, 447000.0, 2292875.0, 465189.0, 78881.0]</t>
+    <t>[76840.0, 206333.0, 696344.0, 438716.0, 358979.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[13629.27, 1601.86, 4066.69, 1569.36, 3896.0]</t>
+    <t>[3974.94, 1128.16, 5689.92, 4788.67, 3702.93]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -374,13 +377,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[12.0, 13.0, 15.0, 12.0, 15.0]</t>
+    <t>[12.0, 13.0, 14.0, 14.0, 14.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60374004043001.0, 60379201152014.0, 60590995114005.0, 60375331032004.0, 60371131021003.0]</t>
+    <t>[60374800123003.0, 60374028012002.0, 60379106051008.0, 60375401014018.0, 60372222001007.0]</t>
   </si>
 </sst>
 </file>
@@ -811,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +827,17 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="100"/>
+    <col customWidth="1" max="6" min="6" width="80"/>
     <col customWidth="1" max="7" min="7" width="21"/>
-    <col customWidth="1" max="8" min="8" width="18"/>
-    <col customWidth="1" max="9" min="9" width="24"/>
+    <col customWidth="1" max="8" min="8" width="31.5"/>
+    <col customWidth="1" max="9" min="9" width="18"/>
     <col customWidth="1" max="10" min="10" width="24"/>
-    <col customWidth="1" max="11" min="11" width="25.5"/>
+    <col customWidth="1" max="11" min="11" width="24"/>
+    <col customWidth="1" max="12" min="12" width="25.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="0" spans="1:11"/>
-    <row customHeight="1" ht="20" r="1" spans="1:11">
+    <row customHeight="1" ht="20" r="0" spans="1:12"/>
+    <row customHeight="1" ht="20" r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,346 +871,376 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>298521</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10711745</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12541861</v>
+        <v>10711726</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>168183613</v>
+        <v>12540631</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7895266.957980506</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="3" spans="1:11">
+        <v>168183614</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>8096263.427934667</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>3.140333409839045</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>3.159566228372725</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>6</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>0.01024</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>2.360043180998696</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="5" spans="1:11">
+      <c r="L4" s="4" t="n">
+        <v>2.637922795690614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>60</v>
+        <v>0.86986</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2683</v>
+        <v>493</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>452.60738638623</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="6" spans="1:11">
+        <v>2618</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>419.6731696660948</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="J6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="K6" s="4" t="n">
-        <v>1.080507046893005</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="7" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.08449714240591</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>20</v>
       </c>
       <c r="H7" s="4" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="J7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="K7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="K7" s="4" t="n">
-        <v>1.275537765318235</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="8" spans="1:11">
+      <c r="L7" s="4" t="n">
+        <v>1.27622023949659</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1</v>
+        <v>0.00399</v>
       </c>
       <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="4" t="n">
-        <v>0.4762671712194158</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="9" spans="1:11">
+      <c r="L8" s="4" t="n">
+        <v>0.4934651519609803</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>12</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1</v>
+        <v>6e-05</v>
       </c>
       <c r="I9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>1.72810582760784</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="10" spans="1:11">
+      <c r="L9" s="4" t="n">
+        <v>1.728219329409902</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="10" spans="1:12">
       <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>27</v>
-      </c>
       <c r="H10" s="4" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="I10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="K10" s="4" t="n">
-        <v>1.004734999883214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="11" spans="1:11">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>1.009513656713327</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>66</v>
+        <v>0.00059</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>66</v>
@@ -1215,453 +1249,492 @@
         <v>66</v>
       </c>
       <c r="K11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="12" spans="1:11">
+    <row customHeight="1" ht="20" r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>2595</v>
+        <v>2571</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>1</v>
+        <v>0.12699</v>
       </c>
       <c r="I12" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>11129</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>634.1173224064103</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>7019</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>0.02388</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>1576</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>297165</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>1566.279761483048</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>6535</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>0.02402</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>1544</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>297165</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>1102.046948939781</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0.14619</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>1344</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>2312</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>347.295582616929</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>4285</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0.22631</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>2176</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>240695</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>4309.201491425592</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>2622</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0.12951</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J17" s="4" t="n">
         <v>1281</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>31303</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>662.7557480267346</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>7030</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>1573</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>522511</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>1989.174073593083</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>6544</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>1540</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>290345</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>1098.40196473036</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>192</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>1344</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>2312</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>355.3628896934345</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>4297</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>240</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>2175.5</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>522511</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>6451.60981443847</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>2646</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>1284</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>31303</v>
-      </c>
       <c r="K17" s="4" t="n">
-        <v>707.9869892989559</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="18" spans="1:11">
+        <v>16570</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>677.9038734394285</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1465</v>
+        <v>1424</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>248</v>
+        <v>0.65834</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1972.5</v>
+        <v>360</v>
       </c>
       <c r="J18" s="4" t="n">
+        <v>2052</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>117182</v>
       </c>
-      <c r="K18" s="4" t="n">
-        <v>2856.601724600014</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="19" spans="1:11">
+      <c r="L18" s="4" t="n">
+        <v>3161.343596982297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>6037</v>
+        <v>1e-05</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>6037</v>
       </c>
       <c r="J19" s="4" t="n">
+        <v>6037</v>
+      </c>
+      <c r="K19" s="4" t="n">
         <v>6111</v>
       </c>
-      <c r="K19" s="4" t="n">
-        <v>20.19823078146437</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="20" spans="1:11">
+      <c r="L19" s="4" t="n">
+        <v>20.22557263091404</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>0.4584262998200447</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>0.9996867951744793</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>0.00021</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>0.6196828714391761</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1233</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.01388</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>441</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>7415</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>248.5534812224838</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>0.4549611873380535</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4" t="n">
+      <c r="D24" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v>0.9948414273343786</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="K22" s="4" t="n">
-        <v>0.6085163417995273</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="23" spans="1:11">
-      <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>1205</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>441</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>5321</v>
-      </c>
-      <c r="K23" s="4" t="n">
-        <v>245.8427898522339</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="24" spans="1:11">
-      <c r="A24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v/>
+        <v>0.0002</v>
       </c>
       <c r="I24" s="4" t="n">
         <v/>
@@ -1672,346 +1745,376 @@
       <c r="K24" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="25" spans="1:11">
+      <c r="L24" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>13</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>1</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="I25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="4" t="n">
+      <c r="K25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="K25" s="4" t="n">
-        <v>3.27719121631081</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="26" spans="1:11">
+      <c r="L25" s="4" t="n">
+        <v>3.290230206660408</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>220337</v>
+        <v>220395</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>33339323</v>
+        <v>0.73903</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>34007667</v>
+        <v>33339521</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>34819650</v>
+        <v>34008779</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>243139.3999435783</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="27" spans="1:11">
+        <v>34819602</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>243500.5863506877</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>226744</v>
+        <v>226694</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-119474845</v>
+        <v>0.76015</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>-118172608.5</v>
+        <v>-119475780</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>-117554744</v>
+        <v>-118173046</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>345130.9544447951</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="28" spans="1:11">
+        <v>-117554482</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>345565.2740466039</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>31196</v>
+        <v>31159</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>128</v>
+        <v>0.11492</v>
       </c>
       <c r="I28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="J28" s="4" t="n">
-        <v>6971010</v>
-      </c>
       <c r="K28" s="4" t="n">
-        <v>97758.59803263453</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="29" spans="1:11">
+        <v>371000512</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>720096.8443489179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>434</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <v>0.16128</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>3315</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>168.7857052327491</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="30" spans="1:11">
-      <c r="A30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>455</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>496</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>3510</v>
-      </c>
-      <c r="K30" s="4" t="n">
-        <v>162.5709765155671</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="31" spans="1:11">
-      <c r="A31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>0.00058</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="32" spans="1:11">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <v>0.00031</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="33" spans="1:11">
-      <c r="A33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="34" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="34" spans="1:11">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v/>
+        <v>0.00048</v>
       </c>
       <c r="I34" s="4" t="n">
         <v/>
@@ -2022,66 +2125,72 @@
       <c r="K34" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="35" spans="1:11">
+      <c r="L34" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="J35" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="J35" s="4" t="n">
+      <c r="K35" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="K35" s="4" t="n">
-        <v>16.01491390029035</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="36" spans="1:11">
+      <c r="L35" s="4" t="n">
+        <v>15.88584217799623</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v/>
+        <v>0.01482</v>
       </c>
       <c r="I36" s="4" t="n">
         <v/>
@@ -2092,241 +2201,262 @@
       <c r="K36" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="37" spans="1:11">
+      <c r="L36" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>77035</v>
+        <v>77095</v>
       </c>
       <c r="H37" s="4" t="n">
+        <v>0.25851</v>
+      </c>
+      <c r="I37" s="4" t="n">
         <v>60371011.101</v>
       </c>
-      <c r="I37" s="4" t="n">
-        <v>60375712.001002</v>
-      </c>
       <c r="J37" s="4" t="n">
-        <v>61110091.003009</v>
+        <v>60375713.001001</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>200465.4156787507</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="38" spans="1:11">
+        <v>61110091.003011</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>200740.2047456802</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>185</v>
       </c>
       <c r="H38" s="4" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="I38" s="4" t="n">
         <v>3491</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="J38" s="4" t="n">
         <v>25218</v>
       </c>
-      <c r="J38" s="4" t="n">
+      <c r="K38" s="4" t="n">
         <v>396556</v>
       </c>
-      <c r="K38" s="4" t="n">
-        <v>51102.39923362588</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="39" spans="1:11">
+      <c r="L38" s="4" t="n">
+        <v>50280.92893077883</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H39" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="I39" s="4" t="n">
         <v>1286</v>
-      </c>
-      <c r="I39" s="4" t="n">
-        <v>3101</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>3101</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>787.8253085635214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="40" spans="1:11">
+        <v>3101</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>788.115100563851</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>516</v>
       </c>
       <c r="H40" s="4" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="I40" s="4" t="n">
         <v>6952</v>
       </c>
-      <c r="I40" s="4" t="n">
+      <c r="J40" s="4" t="n">
         <v>118920</v>
       </c>
-      <c r="J40" s="4" t="n">
+      <c r="K40" s="4" t="n">
         <v>764167</v>
       </c>
-      <c r="K40" s="4" t="n">
-        <v>165541.8632532145</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="41" spans="1:11">
+      <c r="L40" s="4" t="n">
+        <v>166054.5572893236</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H41" s="4" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="I41" s="4" t="n">
         <v>95982</v>
       </c>
-      <c r="I41" s="4" t="n">
+      <c r="J41" s="4" t="n">
         <v>96377</v>
       </c>
-      <c r="J41" s="4" t="n">
+      <c r="K41" s="4" t="n">
         <v>399675</v>
       </c>
-      <c r="K41" s="4" t="n">
-        <v>3539.345367739022</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="42" spans="1:11">
+      <c r="L41" s="4" t="n">
+        <v>3912.952886498957</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>2.828966082092426</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="43" spans="1:12">
+      <c r="A43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>2.825795715260897</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="43" spans="1:11">
-      <c r="A43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>7</v>
+        <v>0.00685</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>7</v>
@@ -2335,45 +2465,51 @@
         <v>7</v>
       </c>
       <c r="K43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="44" spans="1:11">
+    <row customHeight="1" ht="20" r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>0.00016</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K44" s="4" t="n">
-        <v>0.1130392109422777</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="45" spans="1:11">
+      <c r="L44" s="4" t="n">
+        <v>0.1123993795057792</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="45" spans="1:12">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -2381,10 +2517,10 @@
         <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -2393,22 +2529,25 @@
         <v>96</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I45" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I45" s="4" t="n">
+      <c r="J45" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J45" s="4" t="n">
-        <v>13</v>
-      </c>
       <c r="K45" s="4" t="n">
-        <v>0.5229937780759263</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="46" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>0.1544155105197449</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="46" spans="1:12">
       <c r="A46" s="3" t="s">
         <v>97</v>
       </c>
@@ -2416,34 +2555,37 @@
         <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>0.00023</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>685</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>2.973564394232756</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="47" spans="1:11">
+        <v>708</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>1.985558877244485</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="47" spans="1:12">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -2451,10 +2593,10 @@
         <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
@@ -2463,22 +2605,25 @@
         <v>99</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="H47" s="4" t="n">
+        <v>0.10984</v>
+      </c>
+      <c r="I47" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I47" s="4" t="n">
-        <v>266</v>
-      </c>
       <c r="J47" s="4" t="n">
-        <v>4029</v>
+        <v>270</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>228.1961079210919</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="48" spans="1:11">
+        <v>3940</v>
+      </c>
+      <c r="L47" s="4" t="n">
+        <v>238.0324681436807</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="48" spans="1:12">
       <c r="A48" s="3" t="s">
         <v>100</v>
       </c>
@@ -2486,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -2498,22 +2643,25 @@
         <v>101</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>12</v>
+        <v>0.64557</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>3668</v>
+        <v>200</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>374.0629767601168</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="49" spans="1:11">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="4" t="n">
+        <v>305.5917336555634</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="49" spans="1:12">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -2521,10 +2669,10 @@
         <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -2533,22 +2681,25 @@
         <v>103</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1824</v>
+        <v>0.00049</v>
       </c>
       <c r="I49" s="4" t="n">
+        <v>1808</v>
+      </c>
+      <c r="J49" s="4" t="n">
         <v>1963</v>
       </c>
-      <c r="J49" s="4" t="n">
+      <c r="K49" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="K49" s="4" t="n">
-        <v>23.65831885550228</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="50" spans="1:11">
+      <c r="L49" s="4" t="n">
+        <v>23.64898049398641</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>104</v>
       </c>
@@ -2556,57 +2707,60 @@
         <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K50" s="4" t="n">
-        <v>0.5365064314039814</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="51" spans="1:11">
+      <c r="L50" s="4" t="n">
+        <v>0.53718598416522</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v/>
+        <v>0.00204</v>
       </c>
       <c r="I51" s="4" t="n">
         <v/>
@@ -2617,206 +2771,224 @@
       <c r="K51" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="52" spans="1:11">
+      <c r="L51" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>137853</v>
+        <v>138256</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>0.47044</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>126996</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>141417470</v>
+        <v>127127</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>435628.03095789</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="53" spans="1:11">
+        <v>66404932</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>293554.2147698847</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="53" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>162267</v>
+        <v>162690</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>0.55125</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>321013</v>
+        <v>8</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>151895087</v>
+        <v>321197</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>806314.3904030907</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="54" spans="1:11">
+        <v>71067500</v>
+      </c>
+      <c r="L53" s="4" t="n">
+        <v>664779.8106014472</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>2002</v>
+        <v>2e-05</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="J54" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>0.06103851247917066</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="55" spans="1:11">
+        <v>2016</v>
+      </c>
+      <c r="L54" s="4" t="n">
+        <v>0.05644424530550186</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>141686</v>
+        <v>142023</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>5</v>
+        <v>0.48548</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>176350</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>80274879</v>
+        <v>176431</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>496671.5830410097</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="56" spans="1:11">
+        <v>43899410</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>456473.0703916688</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="56" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>249302</v>
+        <v>249370</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>9.58</v>
+        <v>0.8418</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>3999.76</v>
+        <v>1.85</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>1840935.06</v>
+        <v>4009.555</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>9096.441149518421</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="57" spans="1:11">
+        <v>1195295.62</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>8114.674651120028</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="57" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v/>
+        <v>0.00018</v>
       </c>
       <c r="I57" s="4" t="n">
         <v/>
@@ -2827,75 +2999,84 @@
       <c r="K57" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="58" spans="1:11">
+      <c r="L57" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="58" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>3</v>
+        <v>0.00286</v>
       </c>
       <c r="I58" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="J58" s="4" t="n">
-        <v>99</v>
-      </c>
       <c r="K58" s="4" t="n">
-        <v>2.888095735452253</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="59" spans="1:11">
+        <v>97</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>2.714057246766975</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>75598</v>
+        <v>75685</v>
       </c>
       <c r="H59" s="4" t="n">
+        <v>0.26005</v>
+      </c>
+      <c r="I59" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="I59" s="4" t="n">
-        <v>60375714001003</v>
-      </c>
       <c r="J59" s="4" t="n">
+        <v>60375714004004.5</v>
+      </c>
+      <c r="K59" s="4" t="n">
         <v>61110091003023</v>
       </c>
-      <c r="K59" s="4" t="n">
-        <v>255837931776.9263</v>
+      <c r="L59" s="4" t="n">
+        <v>255926140441.3713</v>
       </c>
     </row>
   </sheetData>
